--- a/biology/Botanique/Exposition_horticole_de_1992/Exposition_horticole_de_1992.xlsx
+++ b/biology/Botanique/Exposition_horticole_de_1992/Exposition_horticole_de_1992.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Exposition horticole internationale de 1992, ou Floriade 1992, reconnue par le Bureau international des expositions (BIE) et organisée sous l’autorité du ministère néerlandais de l’Agriculture et de la Pêche, s'est tenue à Zoetermeer près La Haye du 9 avril au 12 octobre 1992. Treize pays étrangers y ont participé (Allemagne, Inde, Japon, Belgique, France, Grande-Bretagne, Autriche, Italie, Hongrie, Pologne, Russie, Thaïlande et Indonésie). Elle a accueilli 3,36 millions de visiteurs.
@@ -512,7 +524,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« La Haye-Zoetermeer 1992 », sur bie-paris.org (consulté le 1er septembre 2013)
  Portail des années 1990   Portail des Pays-Bas   Portail du jardinage et de l’horticulture                   </t>
